--- a/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
+++ b/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>getUser</t>
   </si>
   <si>
-    <t>11:53:35.623807500</t>
+    <t>13:35:08.383930900</t>
   </si>
   <si>
     <t>testCase.demo1</t>
@@ -44,13 +44,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>saucedemo3</t>
+    <t>saucedemo1</t>
   </si>
   <si>
-    <t>11:53:41.576819200</t>
-  </si>
-  <si>
-    <t>testCase.demo2</t>
+    <t>13:35:23.387451900</t>
   </si>
   <si>
     <t>3</t>
@@ -59,16 +56,7 @@
     <t>saucedemo2</t>
   </si>
   <si>
-    <t>11:53:49.385418800</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>saucedemo1</t>
-  </si>
-  <si>
-    <t>11:53:49.408550100</t>
+    <t>13:35:23.449209500</t>
   </si>
 </sst>
 </file>
@@ -113,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -167,18 +155,18 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -187,23 +175,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
+++ b/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -32,31 +32,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>getUser</t>
+    <t>saucedemo3</t>
   </si>
   <si>
-    <t>13:35:08.383930900</t>
+    <t>14:19:43.039013600</t>
   </si>
   <si>
-    <t>testCase.demo1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>saucedemo1</t>
-  </si>
-  <si>
-    <t>13:35:23.387451900</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>saucedemo2</t>
-  </si>
-  <si>
-    <t>13:35:23.449209500</t>
+    <t>testCase.demo2</t>
   </si>
 </sst>
 </file>
@@ -101,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,40 +123,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
+++ b/Report-ScreenShot/ExcelReport/ExcelResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -32,13 +32,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>saucedemo3</t>
+    <t>getUser</t>
   </si>
   <si>
-    <t>14:19:43.039013600</t>
+    <t>22:18:52.142563800</t>
   </si>
   <si>
-    <t>testCase.demo2</t>
+    <t>testCase.demo1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>saucedemo2</t>
+  </si>
+  <si>
+    <t>22:19:07.528960300</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>saucedemo1</t>
+  </si>
+  <si>
+    <t>22:19:07.726271800</t>
   </si>
 </sst>
 </file>
@@ -83,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,6 +141,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
